--- a/person.xlsx
+++ b/person.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25660" yWindow="460" windowWidth="31500" windowHeight="18580" tabRatio="500"/>
+    <workbookView xWindow="28920" yWindow="800" windowWidth="42960" windowHeight="20740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>url</t>
   </si>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>정미칠적,친일매국노</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -113,117 +109,272 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>조중웅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조대호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조중웅의아들</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EC%A1%B0%EB%8C%80%ED%98%B8</t>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EC%A1%B0%EC%9B%90%ED%9D%A5</t>
-  </si>
-  <si>
-    <t>조원흥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조대호의양장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정미칠적,친일매국노,조중웅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재곤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%9E%AC%EA%B3%A4_(1859%EB%85%84)</t>
-  </si>
-  <si>
-    <t>이원용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이해국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이관용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재곤의아들</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재곤의손자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EC%9B%90%EC%9A%A9_(1889%EB%85%84)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정미칠적,친일매국노,이재곤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재곤,독립운동가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EA%B4%80%EC%9A%A9_(%EB%8F%85%EB%A6%BD%EC%9A%B4%EB%8F%99%EA%B0%80)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>독립운동가,언론인,교육자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%ED%95%B4%EA%B5%AD</t>
-  </si>
-  <si>
-    <t>임선준</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EC%9E%84%EC%84%A0%EC%A4%80</t>
-  </si>
-  <si>
-    <t>임낙호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>임선준의아들</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정미칠적,친일매국노,임선준</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EC%9E%84%EB%82%99%ED%98%B8</t>
-  </si>
-  <si>
     <t>person_picture/2017/10/Cho_Jung-eung.JPG</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>person_picture/2017/10/Lee_Jae-gon_Portrait.jpg</t>
-  </si>
-  <si>
-    <t>person_picture/2017/10/Lim_Sun-jun_Portrait.jpg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>윤덕영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경술국적</t>
+  </si>
+  <si>
+    <t>경술국적</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤철구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤덕영의아버지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>민간인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤덕영,윤택영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9C%A4%EC%B2%A0%EA%B5%AC</t>
+  </si>
+  <si>
+    <t>윤택영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤덕영의동생</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9C%A4%ED%83%9D%EC%98%81</t>
+  </si>
+  <si>
+    <t>윤홍섭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤택영의아들</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립운동가,정치인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤덕영,윤택영,독립운동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9C%A4%ED%99%8D%EC%84%AD</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9C%A4%EC%9D%98%EC%84%AD_(%EC%A1%B0%EC%84%A0%EA%B7%80%EC%A1%B1)</t>
+  </si>
+  <si>
+    <t>윤의섭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤무구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤홍섭의아들</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>변호사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤홍섭,윤덕영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9C%A4%EB%AC%B4%EA%B5%AC</t>
+  </si>
+  <si>
+    <t>순정효황후윤씨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>순종의아내</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>황후</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤영택,순종</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%88%9C%EC%A0%95%ED%9A%A8%ED%99%A9%ED%9B%84</t>
+  </si>
+  <si>
+    <t>person_picture/2017/10/Empress_Sunjeong.jpg</t>
+  </si>
+  <si>
+    <t>민병석</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경술국적,친일매국노</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경술국적,친일매국노,윤덕영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%EB%B3%91%EC%84%9D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>민홍기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>민병석의아들</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경술국적,친일매국노,민병석</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>person_picture/2017/10/Min_Byeong-seok_Portrait.jpg</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%ED%99%8D%EA%B8%B0</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%EB%B3%B5%EA%B8%B0</t>
+  </si>
+  <si>
+    <t>민복기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>person_picture/2017/10/minbokki.jpeg</t>
+  </si>
+  <si>
+    <t>68,69</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>민경성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>민경택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>민경삼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>민복기의아들</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>법조인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>민병석,민복기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>친일매국노,검찰총장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>친일독재대법원장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고영희</t>
+  </si>
+  <si>
+    <t>친일매국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EA%B3%A0%EC%98%81%ED%9D%AC_(1849%EB%85%84)</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%B0%95%EC%A0%9C%EC%88%9C</t>
+  </si>
+  <si>
+    <t>박제순</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>을사오적</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이병무</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%9D%B4%EB%B3%91%EB%AC%B4</t>
+  </si>
+  <si>
+    <t>조민희</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%A1%B0%EB%AF%BC%ED%9D%AC_(1859%EB%85%84)</t>
+  </si>
+  <si>
+    <t>person_picture/2017/10/Cho_Min-hui_Portrait.jpg</t>
+  </si>
+  <si>
+    <t>조중수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조민희의아들</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경술국적,친일매국노,조민희</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%A1%B0%EC%A4%91%EC%88%98</t>
+  </si>
+  <si>
+    <t>조용호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조민희의손자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EC%A1%B0%EC%9A%A9%ED%98%B8_(1918%EB%85%84)</t>
   </si>
 </sst>
 </file>
@@ -639,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -703,320 +854,657 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>1860</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3">
-        <v>1893</v>
+        <v>1873</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="I3">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>1924</v>
+        <v>1876</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4">
         <v>25</v>
       </c>
-      <c r="I4">
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
         <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>1859</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
       <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
         <v>30</v>
-      </c>
-      <c r="I5">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
       <c r="C6">
-        <v>1889</v>
+        <v>1912</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>1915</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I7">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C8">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>1861</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C10">
-        <v>1896</v>
+        <v>1883</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11">
+        <v>1913</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>1849</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16">
+        <v>1858</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>1860</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10">
-        <v>24</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="I17">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
         <v>20</v>
       </c>
-      <c r="K10" t="s">
-        <v>42</v>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1864</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>1859</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20">
+        <v>1894</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21">
+        <v>1918</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="F1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1"/>
-    <hyperlink ref="M5" r:id="rId2"/>
+    <hyperlink ref="M8" r:id="rId1"/>
+    <hyperlink ref="M9" r:id="rId2"/>
+    <hyperlink ref="M11" r:id="rId3"/>
+    <hyperlink ref="M19" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/person.xlsx
+++ b/person.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26580" yWindow="460" windowWidth="19340" windowHeight="20740" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="9080" windowWidth="46400" windowHeight="12520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>url</t>
   </si>
@@ -81,51 +81,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민간인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이종문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이시영의손자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이회영,이시영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이규열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이종건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이종택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이종순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친일귀족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친일귀족,남작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립운동가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67,71</t>
+  </si>
+  <si>
+    <t>67,71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민영휘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민병도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민규식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민영휘의서자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%EA%B7%9C%EC%8B%9D</t>
+  </si>
+  <si>
+    <t>민웅기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민영휘의증손자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민종묵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%EC%A2%85%EB%AC%B5</t>
+  </si>
+  <si>
+    <t>person_picture/2017/10/Min_Jong-muk_Portrait.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민철훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친일귀족,남작,민종묵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%EC%B2%A0%ED%9B%88</t>
+  </si>
+  <si>
+    <t>민규현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%EA%B7%9C%ED%98%84</t>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%ED%83%9C%EA%B3%A4</t>
+  </si>
+  <si>
+    <t>민태곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민종묵,독립운동가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%ED%98%95%EC%8B%9D_(1859%EB%85%84)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +213,23 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -159,15 +253,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -501,10 +600,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -516,16 +618,16 @@
     <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="56.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="1"/>
-    <col min="13" max="13" width="33.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.7109375" style="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" style="1"/>
+    <col min="13" max="13" width="61.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="33.42578125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -548,114 +650,246 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1888</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H3" s="2">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1835</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1856</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C7" s="1">
+        <v>1917</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C8" s="1">
+        <v>1859</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>19</v>
+      <c r="M8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/person.xlsx
+++ b/person.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>url</t>
   </si>
@@ -81,121 +81,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친일귀족,남작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박기양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>친일귀족</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친일귀족,남작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독립운동가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spouse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>67,71</t>
-  </si>
-  <si>
-    <t>67,71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민영휘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민형식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민병도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민규식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민영휘의서자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납북</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%EA%B7%9C%EC%8B%9D</t>
-  </si>
-  <si>
-    <t>민웅기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민영휘의증손자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민종묵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%EC%A2%85%EB%AC%B5</t>
-  </si>
-  <si>
-    <t>person_picture/2017/10/Min_Jong-muk_Portrait.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민철훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친일귀족,남작,민종묵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%EC%B2%A0%ED%9B%88</t>
-  </si>
-  <si>
-    <t>민규현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%EA%B7%9C%ED%98%84</t>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%ED%83%9C%EA%B3%A4</t>
-  </si>
-  <si>
-    <t>민태곤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민종묵,독립운동가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EB%AF%BC%ED%98%95%EC%8B%9D_(1859%EB%85%84)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%B0%95%EA%B8%B0%EC%96%91</t>
+  </si>
+  <si>
+    <t>person_picture/2017/10/Park_Gi-yang_Portrait_1G6Yq7s.jpg</t>
+  </si>
+  <si>
+    <t>박승원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%B0%95%EC%8A%B9%EC%9B%90_(1895%EB%85%84)</t>
+  </si>
+  <si>
+    <t>박정서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%B0%95%EC%A0%95%EC%84%9C</t>
+  </si>
+  <si>
+    <t>박영효</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친일귀족,후작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ko.wikipedia.org/wiki/%EB%B0%95%EC%98%81%ED%9A%A8</t>
+  </si>
+  <si>
+    <t>person_picture/2017/10/Park_Yeong-hyo_Portrait.jpg</t>
   </si>
 </sst>
 </file>
@@ -228,8 +173,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -253,20 +199,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -606,7 +554,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -662,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
@@ -673,228 +621,229 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1856</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
+      <c r="H2" s="1">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>1888</v>
+        <v>1895</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1923</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
-        <v>1835</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H4" s="1">
         <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>1856</v>
+        <v>1861</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H5" s="1">
         <v>29</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1895</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1">
-        <v>1900</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H6" s="1">
         <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>1917</v>
+        <v>1895</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H7" s="1">
-        <v>22</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1895</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
-        <v>1859</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H8" s="1">
         <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="F1"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="N5" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>

--- a/person.xlsx
+++ b/person.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="9080" windowWidth="46400" windowHeight="12520" tabRatio="500"/>
+    <workbookView xWindow="25660" yWindow="2700" windowWidth="46400" windowHeight="18320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>url</t>
   </si>
@@ -85,69 +85,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친일귀족,남작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spouse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>박기양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친일귀족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67,71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EB%B0%95%EA%B8%B0%EC%96%91</t>
-  </si>
-  <si>
-    <t>person_picture/2017/10/Park_Gi-yang_Portrait_1G6Yq7s.jpg</t>
-  </si>
-  <si>
-    <t>박승원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EB%B0%95%EC%8A%B9%EC%9B%90_(1895%EB%85%84)</t>
-  </si>
-  <si>
-    <t>박정서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EB%B0%95%EC%A0%95%EC%84%9C</t>
-  </si>
-  <si>
-    <t>박영효</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친일귀족,후작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EB%B0%95%EC%98%81%ED%9A%A8</t>
-  </si>
-  <si>
-    <t>person_picture/2017/10/Park_Yeong-hyo_Portrait.jpg</t>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신정숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신준호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최은영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신정숙딸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최은정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최강용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신정숙아들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최은진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신동학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신동환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신준호아들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,15 +170,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,22 +188,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -548,13 +534,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -610,7 +596,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
@@ -621,229 +607,112 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1856</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1895</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1923</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1861</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
-        <v>1895</v>
+        <v>1968</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1895</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1895</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1">
-        <v>29</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="F1"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N5" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>

--- a/person.xlsx
+++ b/person.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25660" yWindow="2700" windowWidth="46400" windowHeight="18320" tabRatio="500"/>
+    <workbookView xWindow="25940" yWindow="5760" windowWidth="24740" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
